--- a/Data/All_Data.xlsx
+++ b/Data/All_Data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cqu365-my.sharepoint.com/personal/t_awasthi_cqu_edu_au/Documents/Desktop/Main/TR_PHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="722" documentId="11_F25DC773A252ABDACC1048D4F91E75BA5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E4EB98-9E1F-468C-B5DB-7F73DD7C1B83}"/>
+  <xr:revisionPtr revIDLastSave="789" documentId="11_F25DC773A252ABDACC1048D4F91E75BA5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9B6E61-F113-4960-B737-5F21D2AA8DC9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31905" yWindow="0" windowWidth="25605" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_properties" sheetId="2" r:id="rId1"/>
-    <sheet name="Killara" sheetId="3" r:id="rId2"/>
+    <sheet name="Sorted" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_properties!$A$1:$T$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sorted!$G$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
   <si>
     <t>_id</t>
   </si>
@@ -413,7 +414,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -721,11 +722,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB730E1-40AE-43A4-9373-4864495EF765}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +939,7 @@
         <v>171.58</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>86.08</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>165.96</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>46.76</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2673,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2735,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>202.72</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -3170,6 +3172,40 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T39" xr:uid="{8EB730E1-40AE-43A4-9373-4864495EF765}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Australia/Brisbane"/>
+        <filter val="Australia/Darwin"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="101"/>
+        <filter val="12216"/>
+        <filter val="13208"/>
+        <filter val="203127"/>
+        <filter val="21"/>
+        <filter val="33793"/>
+        <filter val="36731"/>
+        <filter val="401156"/>
+        <filter val="6841"/>
+        <filter val="88069"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="1239"/>
+        <filter val="14432"/>
+        <filter val="149"/>
+        <filter val="1824"/>
+        <filter val="201"/>
+        <filter val="268"/>
+        <filter val="339"/>
+        <filter val="629"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3177,14 +3213,595 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEAC2A4-6A46-4E32-9668-1B88D00C7B2C}">
-  <dimension ref="A1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>-26.291630000000001</v>
+      </c>
+      <c r="F2">
+        <v>-59.548000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1981</v>
+      </c>
+      <c r="I2">
+        <v>88069</v>
+      </c>
+      <c r="J2">
+        <v>28716</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>856</v>
+      </c>
+      <c r="M2">
+        <v>249.92</v>
+      </c>
+      <c r="N2">
+        <v>94.43</v>
+      </c>
+      <c r="O2">
+        <v>1239</v>
+      </c>
+      <c r="P2">
+        <v>1239</v>
+      </c>
+      <c r="Q2">
+        <v>70.5</v>
+      </c>
+      <c r="R2">
+        <v>566</v>
+      </c>
+      <c r="S2">
+        <v>167.95</v>
+      </c>
+      <c r="T2">
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3442</v>
+      </c>
+      <c r="E3">
+        <v>-23.237182000000001</v>
+      </c>
+      <c r="F3">
+        <v>150.36959999999999</v>
+      </c>
+      <c r="G3">
+        <v>308</v>
+      </c>
+      <c r="H3">
+        <v>2574</v>
+      </c>
+      <c r="I3">
+        <v>401156</v>
+      </c>
+      <c r="J3">
+        <v>302174</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
+      </c>
+      <c r="L3">
+        <v>2774.67</v>
+      </c>
+      <c r="M3">
+        <v>414.57</v>
+      </c>
+      <c r="N3">
+        <v>182</v>
+      </c>
+      <c r="O3">
+        <v>14432</v>
+      </c>
+      <c r="P3">
+        <v>14390</v>
+      </c>
+      <c r="Q3">
+        <v>1.5</v>
+      </c>
+      <c r="R3">
+        <v>996</v>
+      </c>
+      <c r="S3">
+        <v>400.88</v>
+      </c>
+      <c r="T3">
+        <v>171.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>-25.242000000000001</v>
+      </c>
+      <c r="F4">
+        <v>150.297</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>189</v>
+      </c>
+      <c r="I4">
+        <v>13208</v>
+      </c>
+      <c r="J4">
+        <v>5969</v>
+      </c>
+      <c r="K4">
+        <v>0.02</v>
+      </c>
+      <c r="L4">
+        <v>932</v>
+      </c>
+      <c r="M4">
+        <v>458.58</v>
+      </c>
+      <c r="N4">
+        <v>95.5</v>
+      </c>
+      <c r="O4">
+        <v>268</v>
+      </c>
+      <c r="P4">
+        <v>268</v>
+      </c>
+      <c r="Q4">
+        <v>233</v>
+      </c>
+      <c r="R4">
+        <v>710</v>
+      </c>
+      <c r="S4">
+        <v>417.13</v>
+      </c>
+      <c r="T4">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>-23.322251600000001</v>
+      </c>
+      <c r="F5">
+        <v>150.51769999999999</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>195</v>
+      </c>
+      <c r="I5">
+        <v>33793</v>
+      </c>
+      <c r="J5">
+        <v>27028</v>
+      </c>
+      <c r="K5">
+        <v>3.5</v>
+      </c>
+      <c r="L5">
+        <v>2152.6</v>
+      </c>
+      <c r="M5">
+        <v>382.27</v>
+      </c>
+      <c r="N5">
+        <v>126.68</v>
+      </c>
+      <c r="O5">
+        <v>149</v>
+      </c>
+      <c r="P5">
+        <v>107</v>
+      </c>
+      <c r="Q5">
+        <v>195.5</v>
+      </c>
+      <c r="R5">
+        <v>534</v>
+      </c>
+      <c r="S5">
+        <v>305.91000000000003</v>
+      </c>
+      <c r="T5">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>-23.545335300000001</v>
+      </c>
+      <c r="F6">
+        <v>148.72720000000001</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1191</v>
+      </c>
+      <c r="I6">
+        <v>36731</v>
+      </c>
+      <c r="J6">
+        <v>34565</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>1110</v>
+      </c>
+      <c r="M6">
+        <v>368.73</v>
+      </c>
+      <c r="N6">
+        <v>103.25</v>
+      </c>
+      <c r="O6">
+        <v>629</v>
+      </c>
+      <c r="P6">
+        <v>629</v>
+      </c>
+      <c r="Q6">
+        <v>206</v>
+      </c>
+      <c r="R6">
+        <v>428</v>
+      </c>
+      <c r="S6">
+        <v>310.7</v>
+      </c>
+      <c r="T6">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1490</v>
+      </c>
+      <c r="E7">
+        <v>-24.526214</v>
+      </c>
+      <c r="F7">
+        <v>150.23269999999999</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>515</v>
+      </c>
+      <c r="I7">
+        <v>12216</v>
+      </c>
+      <c r="J7">
+        <v>12003</v>
+      </c>
+      <c r="K7">
+        <v>51.09</v>
+      </c>
+      <c r="L7">
+        <v>1004.6</v>
+      </c>
+      <c r="M7">
+        <v>460.02</v>
+      </c>
+      <c r="N7">
+        <v>116.68</v>
+      </c>
+      <c r="O7">
+        <v>201</v>
+      </c>
+      <c r="P7">
+        <v>201</v>
+      </c>
+      <c r="Q7">
+        <v>164</v>
+      </c>
+      <c r="R7">
+        <v>904</v>
+      </c>
+      <c r="S7">
+        <v>414.4701</v>
+      </c>
+      <c r="T7">
+        <v>165.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>65200</v>
+      </c>
+      <c r="E8">
+        <v>-15.283453</v>
+      </c>
+      <c r="F8">
+        <v>132.078</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>333</v>
+      </c>
+      <c r="I8">
+        <v>6841</v>
+      </c>
+      <c r="J8">
+        <v>6825</v>
+      </c>
+      <c r="K8">
+        <v>60.81</v>
+      </c>
+      <c r="L8">
+        <v>604.69000000000005</v>
+      </c>
+      <c r="M8">
+        <v>190.44</v>
+      </c>
+      <c r="N8">
+        <v>61.12</v>
+      </c>
+      <c r="O8">
+        <v>339</v>
+      </c>
+      <c r="P8">
+        <v>339</v>
+      </c>
+      <c r="Q8">
+        <v>51.5</v>
+      </c>
+      <c r="R8">
+        <v>339</v>
+      </c>
+      <c r="S8">
+        <v>164.16</v>
+      </c>
+      <c r="T8">
+        <v>46.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>-24.5823</v>
+      </c>
+      <c r="F9">
+        <v>150.07159999999999</v>
+      </c>
+      <c r="G9">
+        <v>1298</v>
+      </c>
+      <c r="H9">
+        <v>1574</v>
+      </c>
+      <c r="I9">
+        <v>203127</v>
+      </c>
+      <c r="J9">
+        <v>196665</v>
+      </c>
+      <c r="K9">
+        <v>30.85</v>
+      </c>
+      <c r="L9">
+        <v>4405.7</v>
+      </c>
+      <c r="M9">
+        <v>466.62</v>
+      </c>
+      <c r="N9">
+        <v>157.09</v>
+      </c>
+      <c r="O9">
+        <v>1824</v>
+      </c>
+      <c r="P9">
+        <v>1822</v>
+      </c>
+      <c r="Q9">
+        <v>21.1</v>
+      </c>
+      <c r="R9">
+        <v>804</v>
+      </c>
+      <c r="S9">
+        <v>459.6</v>
+      </c>
+      <c r="T9">
+        <v>202.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G1:G9" xr:uid="{9AEAC2A4-6A46-4E32-9668-1B88D00C7B2C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1298"/>
+        <filter val="308"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/All_Data.xlsx
+++ b/Data/All_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cqu365-my.sharepoint.com/personal/t_awasthi_cqu_edu_au/Documents/Desktop/Main/TR_PHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="789" documentId="11_F25DC773A252ABDACC1048D4F91E75BA5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9B6E61-F113-4960-B737-5F21D2AA8DC9}"/>
+  <xr:revisionPtr revIDLastSave="794" documentId="11_F25DC773A252ABDACC1048D4F91E75BA5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE2FFE1-CD69-4C1C-9D88-1C365A57776D}"/>
   <bookViews>
-    <workbookView xWindow="31905" yWindow="0" windowWidth="25605" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_properties" sheetId="2" r:id="rId1"/>
@@ -453,10 +453,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,9 +721,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,7 +3212,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
